--- a/report/table_Specification.xlsx
+++ b/report/table_Specification.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Vehicle dimension</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>ALIENWARE 13 GAMING Laptop</t>
+  </si>
+  <si>
+    <t>Mikata Arm</t>
+  </si>
+  <si>
+    <t>Robotic Arm</t>
   </si>
 </sst>
 </file>
@@ -212,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -236,35 +242,38 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -549,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E29"/>
+  <dimension ref="B3:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E3" sqref="B3:E11"/>
+      <selection activeCell="E3" sqref="B3:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -566,191 +575,201 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="2:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="2:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="2:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="2:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="2:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="2:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="10"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="2:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="2:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="14" spans="2:5" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
+      <c r="E12" s="14"/>
+    </row>
+    <row r="15" spans="2:5" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="9"/>
-      <c r="D15" s="3" t="s">
+    <row r="16" spans="2:5" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="17"/>
+      <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
+    <row r="17" spans="3:4" ht="2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="3:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="9" t="s">
+    <row r="19" spans="3:4" ht="2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="3:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="9"/>
-      <c r="D20" s="8" t="s">
+    <row r="21" spans="3:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="17"/>
+      <c r="D21" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="3:4" ht="2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
+    <row r="22" spans="3:4" ht="2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:4" ht="2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="9" t="s">
+    <row r="24" spans="3:4" ht="2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="9"/>
-      <c r="D24" s="5" t="s">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="17"/>
+      <c r="D25" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="9"/>
-      <c r="D25" s="6" t="s">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="17"/>
+      <c r="D26" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="9"/>
-      <c r="D26" s="7" t="s">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="17"/>
+      <c r="D27" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="3:4" ht="2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="2"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="3:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="9" t="s">
+    <row r="28" spans="3:4" ht="2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="3:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="3:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="9"/>
-      <c r="D29" s="7" t="s">
+    <row r="30" spans="3:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="17"/>
+      <c r="D30" s="7" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="E3:E11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="D9:D11"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C24:C27"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C9:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
